--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Anpep-Sele.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Anpep-Sele.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.880612999999999</v>
+        <v>4.426409333333333</v>
       </c>
       <c r="H2">
-        <v>17.641839</v>
+        <v>13.279228</v>
       </c>
       <c r="I2">
-        <v>0.03176836769802798</v>
+        <v>0.02595633018890598</v>
       </c>
       <c r="J2">
-        <v>0.03176836769802797</v>
+        <v>0.02595633018890599</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.692291666666666</v>
+        <v>7.471958000000001</v>
       </c>
       <c r="N2">
-        <v>26.076875</v>
+        <v>22.415874</v>
       </c>
       <c r="O2">
-        <v>0.7904374164682153</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="P2">
-        <v>0.7904374164682153</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="Q2">
-        <v>51.11600337479166</v>
+        <v>33.07394462947467</v>
       </c>
       <c r="R2">
-        <v>460.0440303731249</v>
+        <v>297.665501665272</v>
       </c>
       <c r="S2">
-        <v>0.02511090648864154</v>
+        <v>0.01945122281059554</v>
       </c>
       <c r="T2">
-        <v>0.02511090648864154</v>
+        <v>0.01945122281059555</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.880612999999999</v>
+        <v>4.426409333333333</v>
       </c>
       <c r="H3">
-        <v>17.641839</v>
+        <v>13.279228</v>
       </c>
       <c r="I3">
-        <v>0.03176836769802798</v>
+        <v>0.02595633018890598</v>
       </c>
       <c r="J3">
-        <v>0.03176836769802797</v>
+        <v>0.02595633018890599</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>0.376338</v>
       </c>
       <c r="O3">
-        <v>0.01140748791558863</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="P3">
-        <v>0.01140748791558863</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="Q3">
-        <v>0.7376993783979998</v>
+        <v>0.5552753452293333</v>
       </c>
       <c r="R3">
-        <v>6.639294405581998</v>
+        <v>4.997478107064</v>
       </c>
       <c r="S3">
-        <v>0.0003623972706132303</v>
+        <v>0.0003265647500558714</v>
       </c>
       <c r="T3">
-        <v>0.0003623972706132302</v>
+        <v>0.0003265647500558714</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.880612999999999</v>
+        <v>4.426409333333333</v>
       </c>
       <c r="H4">
-        <v>17.641839</v>
+        <v>13.279228</v>
       </c>
       <c r="I4">
-        <v>0.03176836769802798</v>
+        <v>0.02595633018890598</v>
       </c>
       <c r="J4">
-        <v>0.03176836769802797</v>
+        <v>0.02595633018890599</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.09408700000000002</v>
+        <v>0.148662</v>
       </c>
       <c r="N4">
-        <v>0.282261</v>
+        <v>0.445986</v>
       </c>
       <c r="O4">
-        <v>0.00855584327530561</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="P4">
-        <v>0.008555843275305609</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="Q4">
-        <v>0.5532892353310001</v>
+        <v>0.6580388643119999</v>
       </c>
       <c r="R4">
-        <v>4.979603117979</v>
+        <v>5.922349778808</v>
       </c>
       <c r="S4">
-        <v>0.0002718051751366087</v>
+        <v>0.0003870013302361649</v>
       </c>
       <c r="T4">
-        <v>0.0002718051751366086</v>
+        <v>0.000387001330236165</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.880612999999999</v>
+        <v>4.426409333333333</v>
       </c>
       <c r="H5">
-        <v>17.641839</v>
+        <v>13.279228</v>
       </c>
       <c r="I5">
-        <v>0.03176836769802798</v>
+        <v>0.02595633018890598</v>
       </c>
       <c r="J5">
-        <v>0.03176836769802797</v>
+        <v>0.02595633018890599</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.04400233333333333</v>
+        <v>0.01595966666666667</v>
       </c>
       <c r="N5">
-        <v>0.132007</v>
+        <v>0.047879</v>
       </c>
       <c r="O5">
-        <v>0.004001371791509515</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="P5">
-        <v>0.004001371791509515</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="Q5">
-        <v>0.2587606934303333</v>
+        <v>0.07064401749022221</v>
       </c>
       <c r="R5">
-        <v>2.328846240872999</v>
+        <v>0.635796157412</v>
       </c>
       <c r="S5">
-        <v>0.0001271170503691912</v>
+        <v>4.154667790104923E-05</v>
       </c>
       <c r="T5">
-        <v>0.0001271170503691912</v>
+        <v>4.154667790104924E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.880612999999999</v>
+        <v>4.426409333333333</v>
       </c>
       <c r="H6">
-        <v>17.641839</v>
+        <v>13.279228</v>
       </c>
       <c r="I6">
-        <v>0.03176836769802798</v>
+        <v>0.02595633018890598</v>
       </c>
       <c r="J6">
-        <v>0.03176836769802797</v>
+        <v>0.02595633018890599</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,33 +809,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.040985</v>
+        <v>2.145887333333333</v>
       </c>
       <c r="N6">
-        <v>6.122955</v>
+        <v>6.437662</v>
       </c>
       <c r="O6">
-        <v>0.1855978805493811</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="P6">
-        <v>0.1855978805493811</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="Q6">
-        <v>12.002242923805</v>
+        <v>9.498575720548443</v>
       </c>
       <c r="R6">
-        <v>108.020186314245</v>
+        <v>85.48718148493599</v>
       </c>
       <c r="S6">
-        <v>0.005896141713267413</v>
+        <v>0.005586237589544986</v>
       </c>
       <c r="T6">
-        <v>0.005896141713267412</v>
+        <v>0.005586237589544987</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>38.42378633333333</v>
+        <v>4.426409333333333</v>
       </c>
       <c r="H7">
-        <v>115.271359</v>
+        <v>13.279228</v>
       </c>
       <c r="I7">
-        <v>0.2075737635834556</v>
+        <v>0.02595633018890598</v>
       </c>
       <c r="J7">
-        <v>0.2075737635834556</v>
+        <v>0.02595633018890599</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>8.692291666666666</v>
+        <v>0.06290533333333333</v>
       </c>
       <c r="N7">
-        <v>26.076875</v>
+        <v>0.188716</v>
       </c>
       <c r="O7">
-        <v>0.7904374164682153</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="P7">
-        <v>0.7904374164682153</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="Q7">
-        <v>333.9907577470138</v>
+        <v>0.2784447545831111</v>
       </c>
       <c r="R7">
-        <v>3005.916819723125</v>
+        <v>2.506002791248</v>
       </c>
       <c r="S7">
-        <v>0.1640740694134908</v>
+        <v>0.000163757030572368</v>
       </c>
       <c r="T7">
-        <v>0.1640740694134908</v>
+        <v>0.000163757030572368</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>115.271359</v>
       </c>
       <c r="I8">
-        <v>0.2075737635834556</v>
+        <v>0.2253159186308059</v>
       </c>
       <c r="J8">
-        <v>0.2075737635834556</v>
+        <v>0.2253159186308059</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.125446</v>
+        <v>7.471958000000001</v>
       </c>
       <c r="N8">
-        <v>0.376338</v>
+        <v>22.415874</v>
       </c>
       <c r="O8">
-        <v>0.01140748791558863</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="P8">
-        <v>0.01140748791558863</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="Q8">
-        <v>4.820110300371332</v>
+        <v>287.1009176836407</v>
       </c>
       <c r="R8">
-        <v>43.380992703342</v>
+        <v>2583.908259152766</v>
       </c>
       <c r="S8">
-        <v>0.00236789519967152</v>
+        <v>0.1688478341955683</v>
       </c>
       <c r="T8">
-        <v>0.00236789519967152</v>
+        <v>0.1688478341955683</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>115.271359</v>
       </c>
       <c r="I9">
-        <v>0.2075737635834556</v>
+        <v>0.2253159186308059</v>
       </c>
       <c r="J9">
-        <v>0.2075737635834556</v>
+        <v>0.2253159186308059</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.09408700000000002</v>
+        <v>0.125446</v>
       </c>
       <c r="N9">
-        <v>0.282261</v>
+        <v>0.376338</v>
       </c>
       <c r="O9">
-        <v>0.00855584327530561</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="P9">
-        <v>0.008555843275305609</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="Q9">
-        <v>3.615178784744334</v>
+        <v>4.820110300371334</v>
       </c>
       <c r="R9">
-        <v>32.53660906269901</v>
+        <v>43.380992703342</v>
       </c>
       <c r="S9">
-        <v>0.001775968589285385</v>
+        <v>0.002834770405360584</v>
       </c>
       <c r="T9">
-        <v>0.001775968589285385</v>
+        <v>0.002834770405360584</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>115.271359</v>
       </c>
       <c r="I10">
-        <v>0.2075737635834556</v>
+        <v>0.2253159186308059</v>
       </c>
       <c r="J10">
-        <v>0.2075737635834556</v>
+        <v>0.2253159186308059</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.04400233333333333</v>
+        <v>0.148662</v>
       </c>
       <c r="N10">
-        <v>0.132007</v>
+        <v>0.445986</v>
       </c>
       <c r="O10">
-        <v>0.004001371791509515</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="P10">
-        <v>0.004001371791509515</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="Q10">
-        <v>1.690736254168111</v>
+        <v>5.712156923885999</v>
       </c>
       <c r="R10">
-        <v>15.216626287513</v>
+        <v>51.409412314974</v>
       </c>
       <c r="S10">
-        <v>0.0008305798022603043</v>
+        <v>0.003359394783426455</v>
       </c>
       <c r="T10">
-        <v>0.0008305798022603042</v>
+        <v>0.003359394783426456</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,45 +1107,45 @@
         <v>115.271359</v>
       </c>
       <c r="I11">
-        <v>0.2075737635834556</v>
+        <v>0.2253159186308059</v>
       </c>
       <c r="J11">
-        <v>0.2075737635834556</v>
+        <v>0.2253159186308059</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>2.040985</v>
+        <v>0.01595966666666667</v>
       </c>
       <c r="N11">
-        <v>6.122955</v>
+        <v>0.047879</v>
       </c>
       <c r="O11">
-        <v>0.1855978805493811</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="P11">
-        <v>0.1855978805493811</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="Q11">
-        <v>78.42237154953833</v>
+        <v>0.6132308219512222</v>
       </c>
       <c r="R11">
-        <v>705.801343945845</v>
+        <v>5.519077397561</v>
       </c>
       <c r="S11">
-        <v>0.03852525057874766</v>
+        <v>0.0003606491298733038</v>
       </c>
       <c r="T11">
-        <v>0.03852525057874765</v>
+        <v>0.0003606491298733038</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>62.680654</v>
+        <v>38.42378633333333</v>
       </c>
       <c r="H12">
-        <v>188.041962</v>
+        <v>115.271359</v>
       </c>
       <c r="I12">
-        <v>0.3386147096952083</v>
+        <v>0.2253159186308059</v>
       </c>
       <c r="J12">
-        <v>0.3386147096952083</v>
+        <v>0.2253159186308059</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,33 +1181,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.692291666666666</v>
+        <v>2.145887333333333</v>
       </c>
       <c r="N12">
-        <v>26.076875</v>
+        <v>6.437662</v>
       </c>
       <c r="O12">
-        <v>0.7904374164682153</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="P12">
-        <v>0.7904374164682153</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="Q12">
-        <v>544.8385264254166</v>
+        <v>82.45311639140643</v>
       </c>
       <c r="R12">
-        <v>4903.546737828749</v>
+        <v>742.0780475226579</v>
       </c>
       <c r="S12">
-        <v>0.2676537363096152</v>
+        <v>0.04849176462997206</v>
       </c>
       <c r="T12">
-        <v>0.2676537363096152</v>
+        <v>0.04849176462997207</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>62.680654</v>
+        <v>38.42378633333333</v>
       </c>
       <c r="H13">
-        <v>188.041962</v>
+        <v>115.271359</v>
       </c>
       <c r="I13">
-        <v>0.3386147096952083</v>
+        <v>0.2253159186308059</v>
       </c>
       <c r="J13">
-        <v>0.3386147096952083</v>
+        <v>0.2253159186308059</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.125446</v>
+        <v>0.06290533333333333</v>
       </c>
       <c r="N13">
-        <v>0.376338</v>
+        <v>0.188716</v>
       </c>
       <c r="O13">
-        <v>0.01140748791558863</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="P13">
-        <v>0.01140748791558863</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="Q13">
-        <v>7.863037321683998</v>
+        <v>2.417061087227111</v>
       </c>
       <c r="R13">
-        <v>70.76733589515598</v>
+        <v>21.753549785044</v>
       </c>
       <c r="S13">
-        <v>0.00386274320888864</v>
+        <v>0.001421505486605201</v>
       </c>
       <c r="T13">
-        <v>0.00386274320888864</v>
+        <v>0.001421505486605201</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>62.680654</v>
+        <v>17.973453</v>
       </c>
       <c r="H14">
-        <v>188.041962</v>
+        <v>53.920359</v>
       </c>
       <c r="I14">
-        <v>0.3386147096952083</v>
+        <v>0.1053957837088382</v>
       </c>
       <c r="J14">
-        <v>0.3386147096952083</v>
+        <v>0.1053957837088382</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.09408700000000002</v>
+        <v>7.471958000000001</v>
       </c>
       <c r="N14">
-        <v>0.282261</v>
+        <v>22.415874</v>
       </c>
       <c r="O14">
-        <v>0.00855584327530561</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="P14">
-        <v>0.008555843275305609</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="Q14">
-        <v>5.897434692898001</v>
+        <v>134.296885930974</v>
       </c>
       <c r="R14">
-        <v>53.076912236082</v>
+        <v>1208.671973378766</v>
       </c>
       <c r="S14">
-        <v>0.00289713438686531</v>
+        <v>0.0789817688902021</v>
       </c>
       <c r="T14">
-        <v>0.002897134386865309</v>
+        <v>0.0789817688902021</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>62.680654</v>
+        <v>17.973453</v>
       </c>
       <c r="H15">
-        <v>188.041962</v>
+        <v>53.920359</v>
       </c>
       <c r="I15">
-        <v>0.3386147096952083</v>
+        <v>0.1053957837088382</v>
       </c>
       <c r="J15">
-        <v>0.3386147096952083</v>
+        <v>0.1053957837088382</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,28 +1367,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.04400233333333333</v>
+        <v>0.125446</v>
       </c>
       <c r="N15">
-        <v>0.132007</v>
+        <v>0.376338</v>
       </c>
       <c r="O15">
-        <v>0.004001371791509515</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="P15">
-        <v>0.004001371791509515</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="Q15">
-        <v>2.758095030859333</v>
+        <v>2.254697785038</v>
       </c>
       <c r="R15">
-        <v>24.822855277734</v>
+        <v>20.292280065342</v>
       </c>
       <c r="S15">
-        <v>0.00135492334756459</v>
+        <v>0.001326017488347806</v>
       </c>
       <c r="T15">
-        <v>0.00135492334756459</v>
+        <v>0.001326017488347806</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,61 +1411,61 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>62.680654</v>
+        <v>17.973453</v>
       </c>
       <c r="H16">
-        <v>188.041962</v>
+        <v>53.920359</v>
       </c>
       <c r="I16">
-        <v>0.3386147096952083</v>
+        <v>0.1053957837088382</v>
       </c>
       <c r="J16">
-        <v>0.3386147096952083</v>
+        <v>0.1053957837088382</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>2.040985</v>
+        <v>0.148662</v>
       </c>
       <c r="N16">
-        <v>6.122955</v>
+        <v>0.445986</v>
       </c>
       <c r="O16">
-        <v>0.1855978805493811</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="P16">
-        <v>0.1855978805493811</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="Q16">
-        <v>127.93027460419</v>
+        <v>2.671969469886</v>
       </c>
       <c r="R16">
-        <v>1151.37247143771</v>
+        <v>24.047725228974</v>
       </c>
       <c r="S16">
-        <v>0.06284617244227463</v>
+        <v>0.001571420466597273</v>
       </c>
       <c r="T16">
-        <v>0.06284617244227461</v>
+        <v>0.001571420466597273</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
         <v>3</v>
       </c>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.465628</v>
+        <v>17.973453</v>
       </c>
       <c r="H17">
-        <v>22.396884</v>
+        <v>53.920359</v>
       </c>
       <c r="I17">
-        <v>0.04033096811517664</v>
+        <v>0.1053957837088382</v>
       </c>
       <c r="J17">
-        <v>0.04033096811517663</v>
+        <v>0.1053957837088382</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>8.692291666666666</v>
+        <v>0.01595966666666667</v>
       </c>
       <c r="N17">
-        <v>26.076875</v>
+        <v>0.047879</v>
       </c>
       <c r="O17">
-        <v>0.7904374164682153</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="P17">
-        <v>0.7904374164682153</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="Q17">
-        <v>64.89341605083332</v>
+        <v>0.286850318729</v>
       </c>
       <c r="R17">
-        <v>584.0407444575</v>
+        <v>2.581652868561</v>
       </c>
       <c r="S17">
-        <v>0.03187910624062219</v>
+        <v>0.0001687004536469997</v>
       </c>
       <c r="T17">
-        <v>0.03187910624062219</v>
+        <v>0.0001687004536469997</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,51 +1535,51 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.465628</v>
+        <v>17.973453</v>
       </c>
       <c r="H18">
-        <v>22.396884</v>
+        <v>53.920359</v>
       </c>
       <c r="I18">
-        <v>0.04033096811517664</v>
+        <v>0.1053957837088382</v>
       </c>
       <c r="J18">
-        <v>0.04033096811517663</v>
+        <v>0.1053957837088382</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.125446</v>
+        <v>2.145887333333333</v>
       </c>
       <c r="N18">
-        <v>0.376338</v>
+        <v>6.437662</v>
       </c>
       <c r="O18">
-        <v>0.01140748791558863</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="P18">
-        <v>0.01140748791558863</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="Q18">
-        <v>0.9365331700879997</v>
+        <v>38.56900512896199</v>
       </c>
       <c r="R18">
-        <v>8.428798530791999</v>
+        <v>347.121046160658</v>
       </c>
       <c r="S18">
-        <v>0.0004600750313978678</v>
+        <v>0.02268294032511229</v>
       </c>
       <c r="T18">
-        <v>0.0004600750313978677</v>
+        <v>0.02268294032511229</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.465628</v>
+        <v>17.973453</v>
       </c>
       <c r="H19">
-        <v>22.396884</v>
+        <v>53.920359</v>
       </c>
       <c r="I19">
-        <v>0.04033096811517664</v>
+        <v>0.1053957837088382</v>
       </c>
       <c r="J19">
-        <v>0.04033096811517663</v>
+        <v>0.1053957837088382</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1615,28 +1615,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.09408700000000002</v>
+        <v>0.06290533333333333</v>
       </c>
       <c r="N19">
-        <v>0.282261</v>
+        <v>0.188716</v>
       </c>
       <c r="O19">
-        <v>0.00855584327530561</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="P19">
-        <v>0.008555843275305609</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="Q19">
-        <v>0.7024185416360001</v>
+        <v>1.130626052116</v>
       </c>
       <c r="R19">
-        <v>6.321766874724001</v>
+        <v>10.175634469044</v>
       </c>
       <c r="S19">
-        <v>0.000345065442334799</v>
+        <v>0.0006649360849317488</v>
       </c>
       <c r="T19">
-        <v>0.0003450654423347989</v>
+        <v>0.0006649360849317488</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>7.465628</v>
+        <v>3.311730333333333</v>
       </c>
       <c r="H20">
-        <v>22.396884</v>
+        <v>9.935191</v>
       </c>
       <c r="I20">
-        <v>0.04033096811517664</v>
+        <v>0.01941988631310849</v>
       </c>
       <c r="J20">
-        <v>0.04033096811517663</v>
+        <v>0.01941988631310849</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.04400233333333333</v>
+        <v>7.471958000000001</v>
       </c>
       <c r="N20">
-        <v>0.132007</v>
+        <v>22.415874</v>
       </c>
       <c r="O20">
-        <v>0.004001371791509515</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="P20">
-        <v>0.004001371791509515</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="Q20">
-        <v>0.3285050517986666</v>
+        <v>24.74510995799267</v>
       </c>
       <c r="R20">
-        <v>2.956545466188</v>
+        <v>222.705989621934</v>
       </c>
       <c r="S20">
-        <v>0.0001613791981403375</v>
+        <v>0.01455292535129479</v>
       </c>
       <c r="T20">
-        <v>0.0001613791981403375</v>
+        <v>0.01455292535129479</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>7.465628</v>
+        <v>3.311730333333333</v>
       </c>
       <c r="H21">
-        <v>22.396884</v>
+        <v>9.935191</v>
       </c>
       <c r="I21">
-        <v>0.04033096811517664</v>
+        <v>0.01941988631310849</v>
       </c>
       <c r="J21">
-        <v>0.04033096811517663</v>
+        <v>0.01941988631310849</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>2.040985</v>
+        <v>0.125446</v>
       </c>
       <c r="N21">
-        <v>6.122955</v>
+        <v>0.376338</v>
       </c>
       <c r="O21">
-        <v>0.1855978805493811</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="P21">
-        <v>0.1855978805493811</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="Q21">
-        <v>15.23723476358</v>
+        <v>0.4154433233953334</v>
       </c>
       <c r="R21">
-        <v>137.13511287222</v>
+        <v>3.738989910558</v>
       </c>
       <c r="S21">
-        <v>0.00748534220268145</v>
+        <v>0.0002443276947780657</v>
       </c>
       <c r="T21">
-        <v>0.007485342202681449</v>
+        <v>0.0002443276947780657</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,51 +1783,51 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>13.62051666666667</v>
+        <v>3.311730333333333</v>
       </c>
       <c r="H22">
-        <v>40.86155</v>
+        <v>9.935191</v>
       </c>
       <c r="I22">
-        <v>0.07358103342351982</v>
+        <v>0.01941988631310849</v>
       </c>
       <c r="J22">
-        <v>0.07358103342351979</v>
+        <v>0.01941988631310849</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>8.692291666666666</v>
+        <v>0.148662</v>
       </c>
       <c r="N22">
-        <v>26.076875</v>
+        <v>0.445986</v>
       </c>
       <c r="O22">
-        <v>0.7904374164682153</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="P22">
-        <v>0.7904374164682153</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="Q22">
-        <v>118.3935035173611</v>
+        <v>0.4923284548139999</v>
       </c>
       <c r="R22">
-        <v>1065.54153165625</v>
+        <v>4.430956093325999</v>
       </c>
       <c r="S22">
-        <v>0.05816120196034841</v>
+        <v>0.0002895448540495256</v>
       </c>
       <c r="T22">
-        <v>0.05816120196034839</v>
+        <v>0.0002895448540495256</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,61 +1845,61 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>13.62051666666667</v>
+        <v>3.311730333333333</v>
       </c>
       <c r="H23">
-        <v>40.86155</v>
+        <v>9.935191</v>
       </c>
       <c r="I23">
-        <v>0.07358103342351982</v>
+        <v>0.01941988631310849</v>
       </c>
       <c r="J23">
-        <v>0.07358103342351979</v>
+        <v>0.01941988631310849</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L23">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M23">
-        <v>0.125446</v>
+        <v>0.01595966666666667</v>
       </c>
       <c r="N23">
-        <v>0.376338</v>
+        <v>0.047879</v>
       </c>
       <c r="O23">
-        <v>0.01140748791558863</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="P23">
-        <v>0.01140748791558863</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="Q23">
-        <v>1.708639333766666</v>
+        <v>0.05285411220988889</v>
       </c>
       <c r="R23">
-        <v>15.3777540039</v>
+        <v>0.475687009889</v>
       </c>
       <c r="S23">
-        <v>0.0008393747495953252</v>
+        <v>3.10842001027773E-05</v>
       </c>
       <c r="T23">
-        <v>0.0008393747495953249</v>
+        <v>3.10842001027773E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
         <v>3</v>
       </c>
@@ -1907,51 +1907,51 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>13.62051666666667</v>
+        <v>3.311730333333333</v>
       </c>
       <c r="H24">
-        <v>40.86155</v>
+        <v>9.935191</v>
       </c>
       <c r="I24">
-        <v>0.07358103342351982</v>
+        <v>0.01941988631310849</v>
       </c>
       <c r="J24">
-        <v>0.07358103342351979</v>
+        <v>0.01941988631310849</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.09408700000000002</v>
+        <v>2.145887333333333</v>
       </c>
       <c r="N24">
-        <v>0.282261</v>
+        <v>6.437662</v>
       </c>
       <c r="O24">
-        <v>0.00855584327530561</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="P24">
-        <v>0.008555843275305609</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="Q24">
-        <v>1.281513551616667</v>
+        <v>7.106600173715776</v>
       </c>
       <c r="R24">
-        <v>11.53362196455</v>
+        <v>63.95940156344199</v>
       </c>
       <c r="S24">
-        <v>0.0006295477900066594</v>
+        <v>0.004179485239918242</v>
       </c>
       <c r="T24">
-        <v>0.0006295477900066591</v>
+        <v>0.004179485239918243</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>13.62051666666667</v>
+        <v>3.311730333333333</v>
       </c>
       <c r="H25">
-        <v>40.86155</v>
+        <v>9.935191</v>
       </c>
       <c r="I25">
-        <v>0.07358103342351982</v>
+        <v>0.01941988631310849</v>
       </c>
       <c r="J25">
-        <v>0.07358103342351979</v>
+        <v>0.01941988631310849</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.04400233333333333</v>
+        <v>0.06290533333333333</v>
       </c>
       <c r="N25">
-        <v>0.132007</v>
+        <v>0.188716</v>
       </c>
       <c r="O25">
-        <v>0.004001371791509515</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="P25">
-        <v>0.004001371791509515</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="Q25">
-        <v>0.5993345145388889</v>
+        <v>0.2083255005284444</v>
       </c>
       <c r="R25">
-        <v>5.39401063085</v>
+        <v>1.874929504756</v>
       </c>
       <c r="S25">
-        <v>0.000294425071530991</v>
+        <v>0.0001225189729650937</v>
       </c>
       <c r="T25">
-        <v>0.0002944250715309909</v>
+        <v>0.0001225189729650937</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>13.62051666666667</v>
+        <v>14.126134</v>
       </c>
       <c r="H26">
-        <v>40.86155</v>
+        <v>42.378402</v>
       </c>
       <c r="I26">
-        <v>0.07358103342351982</v>
+        <v>0.08283522168534149</v>
       </c>
       <c r="J26">
-        <v>0.07358103342351979</v>
+        <v>0.08283522168534149</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,33 +2049,33 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.040985</v>
+        <v>7.471958000000001</v>
       </c>
       <c r="N26">
-        <v>6.122955</v>
+        <v>22.415874</v>
       </c>
       <c r="O26">
-        <v>0.1855978805493811</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="P26">
-        <v>0.1855978805493811</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="Q26">
-        <v>27.79927020891667</v>
+        <v>105.549879950372</v>
       </c>
       <c r="R26">
-        <v>250.19343188025</v>
+        <v>949.9489195533481</v>
       </c>
       <c r="S26">
-        <v>0.01365648385203845</v>
+        <v>0.06207527573583253</v>
       </c>
       <c r="T26">
-        <v>0.01365648385203844</v>
+        <v>0.06207527573583253</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,7 +2084,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,51 +2093,51 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>57.037872</v>
+        <v>14.126134</v>
       </c>
       <c r="H27">
-        <v>171.113616</v>
+        <v>42.378402</v>
       </c>
       <c r="I27">
-        <v>0.3081311574846117</v>
+        <v>0.08283522168534149</v>
       </c>
       <c r="J27">
-        <v>0.3081311574846116</v>
+        <v>0.08283522168534149</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M27">
-        <v>8.692291666666666</v>
+        <v>0.125446</v>
       </c>
       <c r="N27">
-        <v>26.076875</v>
+        <v>0.376338</v>
       </c>
       <c r="O27">
-        <v>0.7904374164682153</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="P27">
-        <v>0.7904374164682153</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="Q27">
-        <v>495.7898194699999</v>
+        <v>1.772067005764</v>
       </c>
       <c r="R27">
-        <v>4462.10837523</v>
+        <v>15.948603051876</v>
       </c>
       <c r="S27">
-        <v>0.2435583960554972</v>
+        <v>0.001042175965116138</v>
       </c>
       <c r="T27">
-        <v>0.2435583960554972</v>
+        <v>0.001042175965116138</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,7 +2146,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>57.037872</v>
+        <v>14.126134</v>
       </c>
       <c r="H28">
-        <v>171.113616</v>
+        <v>42.378402</v>
       </c>
       <c r="I28">
-        <v>0.3081311574846117</v>
+        <v>0.08283522168534149</v>
       </c>
       <c r="J28">
-        <v>0.3081311574846116</v>
+        <v>0.08283522168534149</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -2173,33 +2173,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.125446</v>
+        <v>0.148662</v>
       </c>
       <c r="N28">
-        <v>0.376338</v>
+        <v>0.445986</v>
       </c>
       <c r="O28">
-        <v>0.01140748791558863</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="P28">
-        <v>0.01140748791558863</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="Q28">
-        <v>7.155172890911999</v>
+        <v>2.100019332708</v>
       </c>
       <c r="R28">
-        <v>64.39655601820799</v>
+        <v>18.900173994372</v>
       </c>
       <c r="S28">
-        <v>0.003515002455422044</v>
+        <v>0.00123504905159268</v>
       </c>
       <c r="T28">
-        <v>0.003515002455422043</v>
+        <v>0.00123504905159268</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2208,7 +2208,7 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>57.037872</v>
+        <v>14.126134</v>
       </c>
       <c r="H29">
-        <v>171.113616</v>
+        <v>42.378402</v>
       </c>
       <c r="I29">
-        <v>0.3081311574846117</v>
+        <v>0.08283522168534149</v>
       </c>
       <c r="J29">
-        <v>0.3081311574846116</v>
+        <v>0.08283522168534149</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -2235,33 +2235,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M29">
-        <v>0.09408700000000002</v>
+        <v>0.01595966666666667</v>
       </c>
       <c r="N29">
-        <v>0.282261</v>
+        <v>0.047879</v>
       </c>
       <c r="O29">
-        <v>0.00855584327530561</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="P29">
-        <v>0.008555843275305609</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="Q29">
-        <v>5.366522262864001</v>
+        <v>0.2254483899286667</v>
       </c>
       <c r="R29">
-        <v>48.29870036577601</v>
+        <v>2.029035509358</v>
       </c>
       <c r="S29">
-        <v>0.002636321891676849</v>
+        <v>0.0001325891699318048</v>
       </c>
       <c r="T29">
-        <v>0.002636321891676848</v>
+        <v>0.0001325891699318048</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2270,7 +2270,7 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2279,108 +2279,480 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>57.037872</v>
+        <v>14.126134</v>
       </c>
       <c r="H30">
-        <v>171.113616</v>
+        <v>42.378402</v>
       </c>
       <c r="I30">
-        <v>0.3081311574846117</v>
+        <v>0.08283522168534149</v>
       </c>
       <c r="J30">
-        <v>0.3081311574846116</v>
+        <v>0.08283522168534149</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0.04400233333333333</v>
+        <v>2.145887333333333</v>
       </c>
       <c r="N30">
-        <v>0.132007</v>
+        <v>6.437662</v>
       </c>
       <c r="O30">
-        <v>0.004001371791509515</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="P30">
-        <v>0.004001371791509515</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="Q30">
-        <v>2.509799456368</v>
+        <v>30.31309201956933</v>
       </c>
       <c r="R30">
-        <v>22.588195107312</v>
+        <v>272.817828176124</v>
       </c>
       <c r="S30">
-        <v>0.001232947321644101</v>
+        <v>0.01782752899771345</v>
       </c>
       <c r="T30">
-        <v>0.001232947321644101</v>
+        <v>0.01782752899771346</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>14.126134</v>
+      </c>
+      <c r="H31">
+        <v>42.378402</v>
+      </c>
+      <c r="I31">
+        <v>0.08283522168534149</v>
+      </c>
+      <c r="J31">
+        <v>0.08283522168534149</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M31">
+        <v>0.06290533333333333</v>
+      </c>
+      <c r="N31">
+        <v>0.188716</v>
+      </c>
+      <c r="O31">
+        <v>0.006308943883074792</v>
+      </c>
+      <c r="P31">
+        <v>0.006308943883074792</v>
+      </c>
+      <c r="Q31">
+        <v>0.8886091679813333</v>
+      </c>
+      <c r="R31">
+        <v>7.997482511832</v>
+      </c>
+      <c r="S31">
+        <v>0.0005226027651548796</v>
+      </c>
+      <c r="T31">
+        <v>0.0005226027651548796</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>92.27142833333333</v>
+      </c>
+      <c r="H32">
+        <v>276.814285</v>
+      </c>
+      <c r="I32">
+        <v>0.5410768594729999</v>
+      </c>
+      <c r="J32">
+        <v>0.5410768594729999</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>7.471958000000001</v>
+      </c>
+      <c r="N32">
+        <v>22.415874</v>
+      </c>
+      <c r="O32">
+        <v>0.7493826233921622</v>
+      </c>
+      <c r="P32">
+        <v>0.7493826233921622</v>
+      </c>
+      <c r="Q32">
+        <v>689.4482371066767</v>
+      </c>
+      <c r="R32">
+        <v>6205.03413396009</v>
+      </c>
+      <c r="S32">
+        <v>0.4054735964086689</v>
+      </c>
+      <c r="T32">
+        <v>0.4054735964086689</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>92.27142833333333</v>
+      </c>
+      <c r="H33">
+        <v>276.814285</v>
+      </c>
+      <c r="I33">
+        <v>0.5410768594729999</v>
+      </c>
+      <c r="J33">
+        <v>0.5410768594729999</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M33">
+        <v>0.125446</v>
+      </c>
+      <c r="N33">
+        <v>0.376338</v>
+      </c>
+      <c r="O33">
+        <v>0.01258131437222388</v>
+      </c>
+      <c r="P33">
+        <v>0.01258131437222388</v>
+      </c>
+      <c r="Q33">
+        <v>11.57508159870333</v>
+      </c>
+      <c r="R33">
+        <v>104.17573438833</v>
+      </c>
+      <c r="S33">
+        <v>0.006807458068565413</v>
+      </c>
+      <c r="T33">
+        <v>0.006807458068565413</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>92.27142833333333</v>
+      </c>
+      <c r="H34">
+        <v>276.814285</v>
+      </c>
+      <c r="I34">
+        <v>0.5410768594729999</v>
+      </c>
+      <c r="J34">
+        <v>0.5410768594729999</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.148662</v>
+      </c>
+      <c r="N34">
+        <v>0.445986</v>
+      </c>
+      <c r="O34">
+        <v>0.01490970901585978</v>
+      </c>
+      <c r="P34">
+        <v>0.01490970901585978</v>
+      </c>
+      <c r="Q34">
+        <v>13.71725507889</v>
+      </c>
+      <c r="R34">
+        <v>123.45529571001</v>
+      </c>
+      <c r="S34">
+        <v>0.008067298529957681</v>
+      </c>
+      <c r="T34">
+        <v>0.008067298529957682</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>92.27142833333333</v>
+      </c>
+      <c r="H35">
+        <v>276.814285</v>
+      </c>
+      <c r="I35">
+        <v>0.5410768594729999</v>
+      </c>
+      <c r="J35">
+        <v>0.5410768594729999</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M35">
+        <v>0.01595966666666667</v>
+      </c>
+      <c r="N35">
+        <v>0.047879</v>
+      </c>
+      <c r="O35">
+        <v>0.001600637593938712</v>
+      </c>
+      <c r="P35">
+        <v>0.001600637593938712</v>
+      </c>
+      <c r="Q35">
+        <v>1.472621239057222</v>
+      </c>
+      <c r="R35">
+        <v>13.253591151515</v>
+      </c>
+      <c r="S35">
+        <v>0.0008660679624827772</v>
+      </c>
+      <c r="T35">
+        <v>0.0008660679624827772</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>57.037872</v>
-      </c>
-      <c r="H31">
-        <v>171.113616</v>
-      </c>
-      <c r="I31">
-        <v>0.3081311574846117</v>
-      </c>
-      <c r="J31">
-        <v>0.3081311574846116</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>2.040985</v>
-      </c>
-      <c r="N31">
-        <v>6.122955</v>
-      </c>
-      <c r="O31">
-        <v>0.1855978805493811</v>
-      </c>
-      <c r="P31">
-        <v>0.1855978805493811</v>
-      </c>
-      <c r="Q31">
-        <v>116.41344118392</v>
-      </c>
-      <c r="R31">
-        <v>1047.72097065528</v>
-      </c>
-      <c r="S31">
-        <v>0.05718848976037148</v>
-      </c>
-      <c r="T31">
-        <v>0.05718848976037147</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>92.27142833333333</v>
+      </c>
+      <c r="H36">
+        <v>276.814285</v>
+      </c>
+      <c r="I36">
+        <v>0.5410768594729999</v>
+      </c>
+      <c r="J36">
+        <v>0.5410768594729999</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>2.145887333333333</v>
+      </c>
+      <c r="N36">
+        <v>6.437662</v>
+      </c>
+      <c r="O36">
+        <v>0.2152167717427406</v>
+      </c>
+      <c r="P36">
+        <v>0.2152167717427406</v>
+      </c>
+      <c r="Q36">
+        <v>198.0040892890744</v>
+      </c>
+      <c r="R36">
+        <v>1782.03680360167</v>
+      </c>
+      <c r="S36">
+        <v>0.1164488149604795</v>
+      </c>
+      <c r="T36">
+        <v>0.1164488149604795</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>92.27142833333333</v>
+      </c>
+      <c r="H37">
+        <v>276.814285</v>
+      </c>
+      <c r="I37">
+        <v>0.5410768594729999</v>
+      </c>
+      <c r="J37">
+        <v>0.5410768594729999</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M37">
+        <v>0.06290533333333333</v>
+      </c>
+      <c r="N37">
+        <v>0.188716</v>
+      </c>
+      <c r="O37">
+        <v>0.006308943883074792</v>
+      </c>
+      <c r="P37">
+        <v>0.006308943883074792</v>
+      </c>
+      <c r="Q37">
+        <v>5.804364956451111</v>
+      </c>
+      <c r="R37">
+        <v>52.23928460806</v>
+      </c>
+      <c r="S37">
+        <v>0.003413623542845501</v>
+      </c>
+      <c r="T37">
+        <v>0.003413623542845501</v>
       </c>
     </row>
   </sheetData>
